--- a/IIMJobsJobListing_2023-07-11.xlsx
+++ b/IIMJobsJobListing_2023-07-11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TAMANG\Documents\GitHub\scraping-iimjobs-success-scholar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E392F6E3-EB8F-4A6F-955F-AF77C5C6AEEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA4F88C-F2BD-4D94-8EE2-823DC09D5F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="410">
   <si>
     <t>Job Title</t>
   </si>
@@ -1089,6 +1089,88 @@
     <t>https://www.iimjobs.com/j/jyoti-international-foods-finance-controller-ca-14-17-yrs-1279089.html?ref=cl</t>
   </si>
   <si>
+    <t>Manager - Finance - Accounting Firm</t>
+  </si>
+  <si>
+    <t>https://www.iimjobs.com/j/manager-finance-accounting-firm-8-15-yrs-1286351.html?ref=cl</t>
+  </si>
+  <si>
+    <t>Credit Auditor - Wholesale Credit - Bank</t>
+  </si>
+  <si>
+    <t>https://www.iimjobs.com/j/credit-auditor-wholesale-credit-bank-4-10-yrs-1286345.html?ref=cl</t>
+  </si>
+  <si>
+    <t>Senior Manager - Finance &amp; Accounts - CA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+        Hosur                                        </t>
+  </si>
+  <si>
+    <t>https://www.iimjobs.com/j/senior-manager-finance-accounts-ca-7-12-yrs-1286343.html?ref=cl</t>
+  </si>
+  <si>
+    <t>Assistant Manager - Internal Audit - Consultancy Firm - CA</t>
+  </si>
+  <si>
+    <t>https://www.iimjobs.com/j/assistant-manager-internal-audit-consultancy-firm-ca-3-5-yrs-1286337.html?ref=cl</t>
+  </si>
+  <si>
+    <t>Financial Analyst - CA</t>
+  </si>
+  <si>
+    <t>https://www.iimjobs.com/j/financial-analyst-ca-4-5-yrs-1286335.html?ref=cl</t>
+  </si>
+  <si>
+    <t>Manager - Finance - CA</t>
+  </si>
+  <si>
+    <t>https://www.iimjobs.com/j/manager-finance-ca-4-10-yrs-1286334.html?ref=cl</t>
+  </si>
+  <si>
+    <t>Manager - Corporate Finance - IT</t>
+  </si>
+  <si>
+    <t>https://www.iimjobs.com/j/manager-corporate-finance-it-5-7-yrs-1286330.html?ref=cl</t>
+  </si>
+  <si>
+    <t>Credit ARM - Corporate Banking - Bank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-7 yrs) </t>
+  </si>
+  <si>
+    <t>https://www.iimjobs.com/j/credit-arm-corporate-banking-bank-4-7-yrs-1286329.html?ref=cl</t>
+  </si>
+  <si>
+    <t>Manager - Internal Audit - Consulting Firm - CA</t>
+  </si>
+  <si>
+    <t>https://www.iimjobs.com/j/manager-internal-audit-consulting-firm-ca-5-7-yrs-1286328.html?ref=cl</t>
+  </si>
+  <si>
+    <t>Burger King - Senior Manager - Finance/Internal Audit - CA</t>
+  </si>
+  <si>
+    <t>https://www.iimjobs.com/j/burger-king-senior-manager-finance-internal-audit-ca-7-12-yrs-1286326.html?ref=cl</t>
+  </si>
+  <si>
+    <t>Credit Audit Role - Loan Review - Bank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-9 yrs) </t>
+  </si>
+  <si>
+    <t>https://www.iimjobs.com/j/credit-audit-role-loan-review-bank-4-9-yrs-1286325.html?ref=cl</t>
+  </si>
+  <si>
+    <t>IndiaMart - Manager - Investor Relations</t>
+  </si>
+  <si>
+    <t>https://www.iimjobs.com/j/indiamart-manager-investor-relations-4-8-yrs-1286323.html?ref=cl</t>
+  </si>
+  <si>
     <t>IndusInd Bank - Lead - Partnerships &amp; Alliances - Individual Segment/MSME Segment</t>
   </si>
   <si>
@@ -1203,598 +1285,6 @@
   </si>
   <si>
     <t>https://www.iimjobs.com/j/vp-avp-investment-banking-bfs-5-16-yrs-1286261.html?ref=cl</t>
-  </si>
-  <si>
-    <t>Chief Compliance Officer - Financial Service Group - CS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12-20 yrs) </t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/chief-compliance-officer-financial-service-group-cs-12-20-yrs-1286259.html?ref=cl</t>
-  </si>
-  <si>
-    <t>Silverdale India Ventures - Senior Accounts Manager - Fund Management</t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/silverdale-india-ventures-senior-accounts-manager-fund-management-5-10-yrs-1286252.html?ref=cl</t>
-  </si>
-  <si>
-    <t>ICICI Bank - Solution Manager - SMEG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0-8 yrs) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-        Mumbai/Ahmedabad                                        </t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/icici-bank-solution-manager-smeg-0-8-yrs-1286251.html?ref=cl</t>
-  </si>
-  <si>
-    <t>ETMONEY - Senior Manager - Credit &amp; Risk  - CA</t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/etmoney-senior-manager-credit-risk-ca-6-10-yrs-1286247.html?ref=cl</t>
-  </si>
-  <si>
-    <t>Financial Controller - FMCG/Food Packaging Industry</t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/financial-controller-fmcg-food-packaging-industry-15-25-yrs-1286245.html?ref=cl</t>
-  </si>
-  <si>
-    <t>Manager - Vehicle Finance - Policy &amp; Risk</t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/manager-vehicle-finance-policy-risk-5-7-yrs-1286239.html?ref=cl</t>
-  </si>
-  <si>
-    <t>Manager - Finance Analytics</t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/manager-finance-analytics-3-5-yrs-1286236.html?ref=cl</t>
-  </si>
-  <si>
-    <t>Atotech - Record to Report Accountant</t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/atotech-record-to-report-accountant-6-12-yrs-1286232.html?ref=cl</t>
-  </si>
-  <si>
-    <t>Emkay Global - Associate - Equity Research</t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/emkay-global-associate-equity-research-3-6-yrs-1286231.html?ref=cl</t>
-  </si>
-  <si>
-    <t>Aakash Emprise - Investment Analyst - Buy Side</t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/aakash-emprise-investment-analyst-buy-side-2-4-yrs-1286225.html?ref=cl</t>
-  </si>
-  <si>
-    <t>EFeed - Head - Finance</t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/efeed-head-finance-5-15-yrs-1286224.html?ref=cl</t>
-  </si>
-  <si>
-    <t>Senior Role - Wealth Management - Private Bank</t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/senior-role-wealth-management-private-bank-15-30-yrs-1286222.html?ref=cl</t>
-  </si>
-  <si>
-    <t>Associate - Audit - CA</t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/associate-audit-ca-2-5-yrs-1286213.html?ref=cl</t>
-  </si>
-  <si>
-    <t>Treasury Auditor - Internal Audit - Bank</t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/treasury-auditor-internal-audit-bank-5-10-yrs-1286208.html?ref=cl</t>
-  </si>
-  <si>
-    <t>KPMG - Manager - Finance Transformation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9-18 yrs) </t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/kpmg-manager-finance-transformation-9-18-yrs-1286206.html?ref=cl</t>
-  </si>
-  <si>
-    <t>AVP - Credit Factoring - Financial Firm</t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/avp-credit-factoring-financial-firm-8-12-yrs-1286201.html?ref=cl</t>
-  </si>
-  <si>
-    <t>Deputy Branch Manager - Banking</t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/deputy-branch-manager-banking-2-4-yrs-1286199.html?ref=cl</t>
-  </si>
-  <si>
-    <t>Manager - Finance &amp; Accounts - FinTech</t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/manager-finance-accounts-fintech-1-2-yrs-1286197.html?ref=cl</t>
-  </si>
-  <si>
-    <t>Specialist/Manager - Direct Taxation/Transfer Pricing - CA</t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/specialist-manager-direct-taxation-transfer-pricing-ca-4-8-yrs-1286195.html?ref=cl</t>
-  </si>
-  <si>
-    <t>Lead - Quality/Compliance &amp; Sustainability</t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/lead-quality-compliance-sustainability-10-15-yrs-1286187.html?ref=cl</t>
-  </si>
-  <si>
-    <t>Kshema - Underwriter - Agriculture Insurance</t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/kshema-underwriter-agriculture-insurance-10-15-yrs-1286182.html?ref=cl</t>
-  </si>
-  <si>
-    <t>IoTechWorld Avigation - Chief Financial Officer</t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/iotechworld-avigation-chief-financial-officer-12-20-yrs-1286178.html?ref=cl</t>
-  </si>
-  <si>
-    <t>Financial Analyst - BFS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-14 yrs) </t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/financial-analyst-bfs-2-14-yrs-1286167.html?ref=cl</t>
-  </si>
-  <si>
-    <t>Project Cost Manager - BFS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-14 yrs) </t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/project-cost-manager-bfs-1-14-yrs-1286166.html?ref=cl</t>
-  </si>
-  <si>
-    <t>Credit Manager - Operations - BFS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-9 yrs) </t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/credit-manager-operations-bfs-2-9-yrs-1286164.html?ref=cl</t>
-  </si>
-  <si>
-    <t>Associate/Senior Associate - Acquisition &amp; New Strategies - Real Estate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-7 yrs) </t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/associate-senior-associate-acquisition-new-strategies-real-estate-4-7-yrs-1286161.html?ref=cl</t>
-  </si>
-  <si>
-    <t>Senior Financial Analyst - KPO</t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/senior-financial-analyst-kpo-2-5-yrs-1286145.html?ref=cl</t>
-  </si>
-  <si>
-    <t>Senior Research Associate - KPO</t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/senior-research-associate-kpo-4-7-yrs-1286143.html?ref=cl</t>
-  </si>
-  <si>
-    <t>Industry Lead - Financial Modeling</t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/industry-lead-financial-modeling-7-10-yrs-1286142.html?ref=cl</t>
-  </si>
-  <si>
-    <t>Associate Financial Analyst - BFS</t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/associate-financial-analyst-bfs-2-4-yrs-1286141.html?ref=cl</t>
-  </si>
-  <si>
-    <t>Manager/Senior Manager - M&amp;A/Tax - Accounting Firm - CA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6-7 yrs) </t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/manager-senior-manager-ma-tax-accounting-firm-ca-6-7-yrs-1286130.html?ref=cl</t>
-  </si>
-  <si>
-    <t>Analyst - Electronic Trading/Client Onboarding - Global Markets</t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/analyst-electronic-trading-client-onboarding-global-markets-1-5-yrs-1286128.html?ref=cl</t>
-  </si>
-  <si>
-    <t>Associate - Equity Research - BFS</t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/associate-equity-research-bfs-1-5-yrs-1286127.html?ref=cl</t>
-  </si>
-  <si>
-    <t>Relationship Manager/Senior Relationship Manager - Private Banking</t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/relationship-manager-senior-relationship-manager-private-banking-4-7-yrs-1286126.html?ref=cl</t>
-  </si>
-  <si>
-    <t>Consultant - Statutory Audit - CA</t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/consultant-statutory-audit-ca-0-1-yrs-1286125.html?ref=cl</t>
-  </si>
-  <si>
-    <t>Manager - Accounts - Conglomerate - CA</t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/manager-accounts-conglomerate-ca-3-5-yrs-1286123.html?ref=cl</t>
-  </si>
-  <si>
-    <t>Actuarial Reserving Role - Non Life Insurance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-12 yrs) </t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/actuarial-reserving-role-non-life-insurance-2-12-yrs-1286109.html?ref=cl</t>
-  </si>
-  <si>
-    <t>Manager - Project Finance - Bank</t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/manager-project-finance-bank-2-7-yrs-1286104.html?ref=cl</t>
-  </si>
-  <si>
-    <t>Manager/Senior Manager - Accounts - BFSI</t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/manager-senior-manager-accounts-bfsi-4-5-yrs-1286097.html?ref=cl</t>
-  </si>
-  <si>
-    <t>Vice President/Specialist - Risk Policy - Unsecured Loan - Bank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10-25 yrs) </t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/vice-president-specialist-risk-policy-unsecured-loan-bank-10-25-yrs-1286096.html?ref=cl</t>
-  </si>
-  <si>
-    <t>Manager/Senior Manager - Compliance - BFSI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-15 yrs) </t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/manager-senior-manager-compliance-bfsi-4-15-yrs-1286094.html?ref=cl</t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/manager-project-finance-bank-2-10-yrs-1286085.html?ref=cl</t>
-  </si>
-  <si>
-    <t>Associate Director - Collections/Account Receivable - IT</t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/associate-director-collections-account-receivable-it-12-15-yrs-1286075.html?ref=cl</t>
-  </si>
-  <si>
-    <t>Senior Role - Financial Due Diligence - Management Consulting Firm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-        Mumbai/Gurgaon/Gurugram                                        </t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/senior-role-financial-due-diligence-management-consulting-firm-5-10-yrs-1286072.html?ref=cl</t>
-  </si>
-  <si>
-    <t>Chartered Accountant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-        Dehradun                                        </t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/chartered-accountant-0-1-yrs-1286067.html?ref=cl</t>
-  </si>
-  <si>
-    <t>Relationship Manager - Emerging Corporate - Bank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-12 yrs) </t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/relationship-manager-emerging-corporate-bank-1-12-yrs-1286060.html?ref=cl</t>
-  </si>
-  <si>
-    <t>Manager - Business Banking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-        Delhi NCR/Delhi                                        </t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/manager-business-banking-8-12-yrs-1286048.html?ref=cl</t>
-  </si>
-  <si>
-    <t>Manager - Finance &amp; Accounts - Infrastructure Firm</t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/manager-finance-accounts-infrastructure-firm-2-6-yrs-1286037.html?ref=cl</t>
-  </si>
-  <si>
-    <t>EY - Director - Public Finance Management - Government Advisory Services</t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/ey-director-public-finance-management-government-advisory-services-12-18-yrs-1286031.html?ref=cl</t>
-  </si>
-  <si>
-    <t>Finance Controller - Startup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9-10 yrs) </t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/finance-controller-startup-9-10-yrs-1286029.html?ref=cl</t>
-  </si>
-  <si>
-    <t>Financial Analyst - FMCG</t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/financial-analyst-fmcg-2-6-yrs-1286020.html?ref=cl</t>
-  </si>
-  <si>
-    <t>Senior Officer - Finance Control - FMCG</t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/senior-officer-finance-control-fmcg-3-6-yrs-1286014.html?ref=cl</t>
-  </si>
-  <si>
-    <t>Manager - Retail Credit Risk - BFSI</t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/manager-retail-credit-risk-bfsi-5-10-yrs-1286006.html?ref=cl</t>
-  </si>
-  <si>
-    <t>Manager - Wholesale Credit Risk - Bank</t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/manager-wholesale-credit-risk-bank-5-10-yrs-1286002.html?ref=cl</t>
-  </si>
-  <si>
-    <t>Director - Risk &amp; Audit - Financial Services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15-22 yrs) </t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/director-risk-audit-financial-services-15-22-yrs-1285997.html?ref=cl</t>
-  </si>
-  <si>
-    <t>Manager - Business Finance - BFS</t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/manager-business-finance-bfs-2-4-yrs-1285996.html?ref=cl</t>
-  </si>
-  <si>
-    <t>Head - Taxation - Health Insurance - CA</t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/head-taxation-health-insurance-ca-10-12-yrs-1285995.html?ref=cl</t>
-  </si>
-  <si>
-    <t>Vice President/Relationship Manager - Loan Against Securities - NBFC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5-14 yrs) </t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/vice-president-relationship-manager-loan-against-securities-nbfc-5-14-yrs-1285991.html?ref=cl</t>
-  </si>
-  <si>
-    <t>DGM - Internal Assurance - Consulting Firm</t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/dgm-internal-assurance-consulting-firm-8-12-yrs-1285987.html?ref=cl</t>
-  </si>
-  <si>
-    <t>EY - Manager - Financial Modeling</t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/ey-manager-financial-modeling-8-10-yrs-1285984.html?ref=cl</t>
-  </si>
-  <si>
-    <t>Senior Private Banker - Wealth Management Firm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5-20 yrs) </t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/senior-private-banker-wealth-management-firm-5-20-yrs-1285978.html?ref=cl</t>
-  </si>
-  <si>
-    <t>Monarch Networth Capital - Senior Research Analyst</t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/monarch-networth-capital-senior-research-analyst-5-10-yrs-1285974.html?ref=cl</t>
-  </si>
-  <si>
-    <t>Manager/Senior Manager - Audit/Statutory &amp; Compliance - CA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-12 yrs) </t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/manager-senior-manager-audit-statutory-compliance-ca-3-12-yrs-1285971.html?ref=cl</t>
-  </si>
-  <si>
-    <t>General Manager - Financial Planning &amp; Analysis - Infra Business</t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/general-manager-financial-planning-analysis-infra-business-12-18-yrs-1285970.html?ref=cl</t>
-  </si>
-  <si>
-    <t>Statutory Audit Role - CA</t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/statutory-audit-role-ca-0-3-yrs-1285965.html?ref=cl</t>
-  </si>
-  <si>
-    <t>Financial Controller - CA</t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/financial-controller-ca-4-7-yrs-1285963.html?ref=cl</t>
-  </si>
-  <si>
-    <t>Finance Business Partner Role - FMCG</t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/finance-business-partner-role-fmcg-6-8-yrs-1285956.html?ref=cl</t>
-  </si>
-  <si>
-    <t>Head - Merger &amp; Acquisition - FMCG - IIM/ISB/MDI/FMS</t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/head-merger-acquisition-fmcg-iim-isb-mdi-fms-8-10-yrs-1285955.html?ref=cl</t>
-  </si>
-  <si>
-    <t>Category Manager - Finance - FMCG</t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/category-manager-finance-fmcg-6-7-yrs-1285953.html?ref=cl</t>
-  </si>
-  <si>
-    <t>Consultant - Statutory Audit - Financial Firm</t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/consultant-statutory-audit-financial-firm-0-1-yrs-1285952.html?ref=cl</t>
-  </si>
-  <si>
-    <t>Corporate Credit Analyst - Bank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-        Navi Mumbai/Thane/Mumbai                                        </t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/corporate-credit-analyst-bank-1-10-yrs-1285940.html?ref=cl</t>
-  </si>
-  <si>
-    <t>Credit Analyst - Bank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-6 yrs) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-        Mumbai/Thane                                        </t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/credit-analyst-bank-1-6-yrs-1285938.html?ref=cl</t>
-  </si>
-  <si>
-    <t>Collections Lead - Credit/Personal Loans</t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/collections-lead-credit-personal-loans-7-14-yrs-1285919.html?ref=cl</t>
-  </si>
-  <si>
-    <t>M&amp;A Tax Expert</t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/ma-tax-expert-1-3-yrs-1285908.html?ref=cl</t>
-  </si>
-  <si>
-    <t>Assistant Manager/Manager - Statutory Audit - Consulting Firm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-        Pune/Mumbai                                        </t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/assistant-manager-manager-statutory-audit-consulting-firm-2-9-yrs-1285906.html?ref=cl</t>
-  </si>
-  <si>
-    <t>Manager - Internal Audit/SOX - CA</t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/manager-internal-audit-sox-ca-5-8-yrs-1285903.html?ref=cl</t>
-  </si>
-  <si>
-    <t>Assistant Manager/Manager - Internal Auditor - Risk Assessment/SOX Compliance - Consulting Firm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-8 yrs) </t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/assistant-manager-manager-internal-auditor-risk-assessment-sox-compliance-consulting-firm-2-8-yrs-1285902.html?ref=cl</t>
-  </si>
-  <si>
-    <t>Myntra - Director - Business Finance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13-16 yrs) </t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/myntra-director-business-finance-13-16-yrs-1285896.html?ref=cl</t>
-  </si>
-  <si>
-    <t>Manager - Chartered Accountant</t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/manager-chartered-accountant-5-12-yrs-1285878.html?ref=cl</t>
-  </si>
-  <si>
-    <t>Senior Manager - Strategy &amp; Finance - FMCG</t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/senior-manager-strategy-finance-fmcg-5-14-yrs-1285875.html?ref=cl</t>
-  </si>
-  <si>
-    <t>Head - Finance &amp; Accounting - CA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12-22 yrs) </t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/head-finance-accounting-ca-12-22-yrs-1285866.html?ref=cl</t>
-  </si>
-  <si>
-    <t>Credit Controller - Shipping Service Firm</t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/credit-controller-shipping-service-firm-9-15-yrs-1285865.html?ref=cl</t>
-  </si>
-  <si>
-    <t>Quant Developer - BFS</t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/quant-developer-bfs-5-8-yrs-1285861.html?ref=cl</t>
-  </si>
-  <si>
-    <t>Senior Manager/Manager - Merger &amp; Acquisition - Healthcare</t>
-  </si>
-  <si>
-    <t>https://www.iimjobs.com/j/senior-manager-manager-merger-acquisition-healthcare-5-15-yrs-1285854.html?ref=cl</t>
   </si>
 </sst>
 </file>
@@ -2160,7 +1650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F233"/>
+  <dimension ref="A1:F157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -2168,12 +1658,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="2"/>
-    <col min="4" max="4" width="15.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="94.44140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="30.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="57.77734375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -2196,7 +1686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -2216,7 +1706,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -2276,7 +1766,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
@@ -2296,7 +1786,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
@@ -2316,7 +1806,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>32</v>
       </c>
@@ -2356,7 +1846,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>40</v>
       </c>
@@ -2376,7 +1866,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>44</v>
       </c>
@@ -2396,7 +1886,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>49</v>
       </c>
@@ -2436,7 +1926,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>55</v>
       </c>
@@ -2496,7 +1986,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>65</v>
       </c>
@@ -2516,7 +2006,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>68</v>
       </c>
@@ -2536,7 +2026,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>72</v>
       </c>
@@ -2636,7 +2126,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>84</v>
       </c>
@@ -2656,7 +2146,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>87</v>
       </c>
@@ -2676,7 +2166,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>90</v>
       </c>
@@ -2716,7 +2206,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>96</v>
       </c>
@@ -2796,7 +2286,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>108</v>
       </c>
@@ -2816,7 +2306,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>110</v>
       </c>
@@ -2896,7 +2386,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>121</v>
       </c>
@@ -3016,7 +2506,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>136</v>
       </c>
@@ -3036,7 +2526,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>138</v>
       </c>
@@ -3076,7 +2566,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>143</v>
       </c>
@@ -3096,7 +2586,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>147</v>
       </c>
@@ -3116,7 +2606,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>150</v>
       </c>
@@ -3136,7 +2626,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>153</v>
       </c>
@@ -3196,7 +2686,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>160</v>
       </c>
@@ -3216,7 +2706,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>163</v>
       </c>
@@ -3236,7 +2726,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>165</v>
       </c>
@@ -3256,7 +2746,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>168</v>
       </c>
@@ -3276,7 +2766,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>171</v>
       </c>
@@ -3296,7 +2786,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>173</v>
       </c>
@@ -3316,7 +2806,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>176</v>
       </c>
@@ -3336,7 +2826,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>176</v>
       </c>
@@ -3356,7 +2846,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>180</v>
       </c>
@@ -3416,7 +2906,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>186</v>
       </c>
@@ -3436,7 +2926,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>190</v>
       </c>
@@ -3456,7 +2946,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>192</v>
       </c>
@@ -3476,7 +2966,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>194</v>
       </c>
@@ -3496,7 +2986,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>196</v>
       </c>
@@ -3536,7 +3026,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>202</v>
       </c>
@@ -3556,7 +3046,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>205</v>
       </c>
@@ -3596,7 +3086,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>210</v>
       </c>
@@ -3716,7 +3206,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>224</v>
       </c>
@@ -3736,7 +3226,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>226</v>
       </c>
@@ -3756,7 +3246,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>229</v>
       </c>
@@ -3776,7 +3266,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>229</v>
       </c>
@@ -3796,7 +3286,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>229</v>
       </c>
@@ -3816,7 +3306,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>232</v>
       </c>
@@ -3836,7 +3326,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>235</v>
       </c>
@@ -3856,7 +3346,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>238</v>
       </c>
@@ -3876,7 +3366,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>242</v>
       </c>
@@ -3896,7 +3386,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>244</v>
       </c>
@@ -3936,7 +3426,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>248</v>
       </c>
@@ -3996,7 +3486,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>255</v>
       </c>
@@ -4016,7 +3506,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>257</v>
       </c>
@@ -4036,7 +3526,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>260</v>
       </c>
@@ -4056,7 +3546,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>262</v>
       </c>
@@ -4096,7 +3586,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>266</v>
       </c>
@@ -4256,7 +3746,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>283</v>
       </c>
@@ -4336,7 +3826,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>293</v>
       </c>
@@ -4356,7 +3846,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>296</v>
       </c>
@@ -4376,7 +3866,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>299</v>
       </c>
@@ -4396,7 +3886,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>301</v>
       </c>
@@ -4416,7 +3906,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>304</v>
       </c>
@@ -4436,7 +3926,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>307</v>
       </c>
@@ -4456,7 +3946,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>309</v>
       </c>
@@ -4496,7 +3986,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>313</v>
       </c>
@@ -4536,7 +4026,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>319</v>
       </c>
@@ -4556,7 +4046,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>321</v>
       </c>
@@ -4616,7 +4106,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>326</v>
       </c>
@@ -4656,7 +4146,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>332</v>
       </c>
@@ -4696,7 +4186,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>339</v>
       </c>
@@ -4716,7 +4206,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>342</v>
       </c>
@@ -4736,15 +4226,15 @@
         <v>344</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>345</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>133</v>
+        <v>17</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>9</v>
@@ -4756,15 +4246,15 @@
         <v>346</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>347</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>348</v>
+        <v>114</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>349</v>
+        <v>22</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>9</v>
@@ -4773,18 +4263,18 @@
         <v>10</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>352</v>
+        <v>258</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>22</v>
+        <v>350</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>9</v>
@@ -4793,18 +4283,18 @@
         <v>10</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>9</v>
@@ -4813,18 +4303,18 @@
         <v>10</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>9</v>
@@ -4833,15 +4323,15 @@
         <v>10</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>206</v>
+        <v>114</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>22</v>
@@ -4853,18 +4343,18 @@
         <v>10</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>73</v>
+        <v>236</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>9</v>
@@ -4873,18 +4363,18 @@
         <v>10</v>
       </c>
       <c r="F135" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A136" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B136" s="2" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A136" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>340</v>
-      </c>
       <c r="C136" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>9</v>
@@ -4893,18 +4383,18 @@
         <v>10</v>
       </c>
       <c r="F136" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A137" s="2" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A137" s="2" t="s">
-        <v>364</v>
-      </c>
       <c r="B137" s="2" t="s">
-        <v>56</v>
+        <v>236</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>9</v>
@@ -4913,18 +4403,18 @@
         <v>10</v>
       </c>
       <c r="F137" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A138" s="2" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A138" s="2" t="s">
-        <v>366</v>
-      </c>
       <c r="B138" s="2" t="s">
-        <v>94</v>
+        <v>258</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>9</v>
@@ -4933,18 +4423,18 @@
         <v>10</v>
       </c>
       <c r="F138" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A139" s="2" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A139" s="2" t="s">
+      <c r="B139" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>317</v>
-      </c>
       <c r="C139" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>9</v>
@@ -4956,15 +4446,15 @@
         <v>369</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>370</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>340</v>
+        <v>187</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>371</v>
+        <v>18</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>9</v>
@@ -4973,18 +4463,18 @@
         <v>10</v>
       </c>
       <c r="F140" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A141" s="2" t="s">
         <v>372</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A141" s="2" t="s">
-        <v>373</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>9</v>
@@ -4993,18 +4483,18 @@
         <v>10</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>9</v>
@@ -5013,18 +4503,18 @@
         <v>10</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B143" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="C143" s="2" t="s">
         <v>376</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>9</v>
@@ -5036,15 +4526,15 @@
         <v>377</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>378</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>177</v>
+        <v>379</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>9</v>
@@ -5053,15 +4543,15 @@
         <v>10</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>381</v>
+        <v>73</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>22</v>
@@ -5081,10 +4571,10 @@
         <v>383</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>384</v>
+        <v>297</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>9</v>
@@ -5093,18 +4583,18 @@
         <v>10</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>134</v>
+        <v>22</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>9</v>
@@ -5113,18 +4603,18 @@
         <v>10</v>
       </c>
       <c r="F147" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A148" s="2" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A148" s="2" t="s">
-        <v>388</v>
-      </c>
       <c r="B148" s="2" t="s">
-        <v>389</v>
+        <v>73</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>390</v>
+        <v>26</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>9</v>
@@ -5133,18 +4623,18 @@
         <v>10</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>340</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>9</v>
@@ -5153,15 +4643,15 @@
         <v>10</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>269</v>
+        <v>56</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>26</v>
@@ -5173,18 +4663,18 @@
         <v>10</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>236</v>
+        <v>94</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>9</v>
@@ -5193,18 +4683,18 @@
         <v>10</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>73</v>
+        <v>317</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>9</v>
@@ -5213,18 +4703,18 @@
         <v>10</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>8</v>
+        <v>398</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>9</v>
@@ -5233,15 +4723,15 @@
         <v>10</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>22</v>
@@ -5253,18 +4743,18 @@
         <v>10</v>
       </c>
       <c r="F154" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A155" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B155" s="2" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A155" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="C155" s="2" t="s">
-        <v>371</v>
+        <v>134</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>9</v>
@@ -5273,18 +4763,18 @@
         <v>10</v>
       </c>
       <c r="F155" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A156" s="2" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A156" s="2" t="s">
-        <v>406</v>
-      </c>
       <c r="B156" s="2" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>9</v>
@@ -5293,18 +4783,18 @@
         <v>10</v>
       </c>
       <c r="F156" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A157" s="2" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A157" s="2" t="s">
+      <c r="B157" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="B157" s="2" t="s">
-        <v>174</v>
-      </c>
       <c r="C157" s="2" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>9</v>
@@ -5314,1526 +4804,6 @@
       </c>
       <c r="F157" s="2" t="s">
         <v>409</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A158" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A159" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F159" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A160" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A161" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A162" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A163" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A164" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F164" s="2" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A165" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A166" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A167" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F167" s="2" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A168" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F168" s="2" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A169" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F169" s="2" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A170" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A171" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F171" s="2" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A172" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F172" s="2" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A173" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F173" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A174" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A175" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F175" s="2" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A176" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F176" s="2" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A177" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F177" s="2" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A178" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F178" s="2" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A179" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F179" s="2" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A180" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F180" s="2" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A181" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F181" s="2" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A182" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F182" s="2" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A183" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A184" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F184" s="2" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A185" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F185" s="2" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A186" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F186" s="2" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A187" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A188" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F188" s="2" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A189" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F189" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A190" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F190" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A191" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F191" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A192" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F192" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A193" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E193" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F193" s="2" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A194" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F194" s="2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A195" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F195" s="2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A196" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F196" s="2" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A197" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F197" s="2" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A198" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E198" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F198" s="2" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A199" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F199" s="2" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A200" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F200" s="2" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A201" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E201" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F201" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A202" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E202" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F202" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A203" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E203" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F203" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A204" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E204" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F204" s="2" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A205" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E205" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F205" s="2" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A206" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E206" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F206" s="2" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A207" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E207" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F207" s="2" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A208" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E208" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F208" s="2" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A209" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E209" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F209" s="2" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A210" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E210" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F210" s="2" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A211" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F211" s="2" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A212" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F212" s="2" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A213" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F213" s="2" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A214" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E214" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F214" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A215" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F215" s="2" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A216" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E216" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F216" s="2" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A217" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E217" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F217" s="2" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A218" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E218" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F218" s="2" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A219" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E219" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F219" s="2" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A220" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="B220" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E220" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F220" s="2" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A221" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D221" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E221" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F221" s="2" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A222" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E222" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F222" s="2" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A223" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="B223" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E223" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F223" s="2" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A224" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E224" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F224" s="2" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A225" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F225" s="2" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A226" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="B226" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D226" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E226" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F226" s="2" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A227" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="B227" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E227" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F227" s="2" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A228" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="B228" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E228" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F228" s="2" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A229" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="B229" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D229" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E229" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F229" s="2" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A230" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="B230" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E230" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F230" s="2" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A231" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="B231" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D231" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E231" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F231" s="2" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A232" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="B232" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D232" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E232" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F232" s="2" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A233" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D233" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E233" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F233" s="2" t="s">
-        <v>577</v>
       </c>
     </row>
   </sheetData>
